--- a/candidates_at_DM_level.xlsx
+++ b/candidates_at_DM_level.xlsx
@@ -367,22 +367,42 @@
     </row>
     <row r="3">
       <c r="B3">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="C3" t="str">
-        <v>saisameer</v>
+        <v>aman</v>
       </c>
       <c r="D3" t="str">
-        <v>saidameer@gmail.com</v>
+        <v>aman@gamil.com</v>
       </c>
       <c r="E3" t="str">
         <v>tcs</v>
       </c>
       <c r="F3" t="str">
-        <v>123456789</v>
+        <v>564321789</v>
       </c>
       <c r="G3" t="str">
-        <v>DM_rejected</v>
+        <v>DM_selected</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4">
+        <v>313</v>
+      </c>
+      <c r="C4" t="str">
+        <v>abcdf</v>
+      </c>
+      <c r="D4" t="str">
+        <v>tishya@gmail.com</v>
+      </c>
+      <c r="E4" t="str">
+        <v>globalTiger</v>
+      </c>
+      <c r="F4" t="str">
+        <v>55667788</v>
+      </c>
+      <c r="G4" t="str">
+        <v>DM_selected</v>
       </c>
     </row>
   </sheetData>

--- a/candidates_at_DM_level.xlsx
+++ b/candidates_at_DM_level.xlsx
@@ -347,39 +347,39 @@
     </row>
     <row r="2">
       <c r="B2">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C2" t="str">
-        <v>shaik</v>
+        <v>sathiya</v>
       </c>
       <c r="D2" t="str">
-        <v>shaik@gmail.com</v>
+        <v>sathiya@gmail.com</v>
       </c>
       <c r="E2" t="str">
-        <v>wipro</v>
+        <v>globalTiger</v>
       </c>
       <c r="F2" t="str">
-        <v>123456789</v>
+        <v>55667788</v>
       </c>
       <c r="G2" t="str">
-        <v>DM_selected</v>
+        <v>DM_rejected</v>
       </c>
     </row>
     <row r="3">
       <c r="B3">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="C3" t="str">
-        <v>aman</v>
+        <v>shaik</v>
       </c>
       <c r="D3" t="str">
-        <v>aman@gamil.com</v>
+        <v>shaik@gmail.com</v>
       </c>
       <c r="E3" t="str">
-        <v>tcs</v>
+        <v>wipro</v>
       </c>
       <c r="F3" t="str">
-        <v>564321789</v>
+        <v>123456789</v>
       </c>
       <c r="G3" t="str">
         <v>DM_selected</v>
@@ -387,22 +387,102 @@
     </row>
     <row r="4">
       <c r="B4">
+        <v>306</v>
+      </c>
+      <c r="C4" t="str">
+        <v>saisameer</v>
+      </c>
+      <c r="D4" t="str">
+        <v>saidameer@gmail.com</v>
+      </c>
+      <c r="E4" t="str">
+        <v>tcs</v>
+      </c>
+      <c r="F4" t="str">
+        <v>123456789</v>
+      </c>
+      <c r="G4" t="str">
+        <v>DM_rejected</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5">
+        <v>312</v>
+      </c>
+      <c r="C5" t="str">
+        <v>aman</v>
+      </c>
+      <c r="D5" t="str">
+        <v>aman@gamil.com</v>
+      </c>
+      <c r="E5" t="str">
+        <v>tcs</v>
+      </c>
+      <c r="F5" t="str">
+        <v>564321789</v>
+      </c>
+      <c r="G5" t="str">
+        <v>DM_selected</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6">
         <v>313</v>
       </c>
-      <c r="C4" t="str">
+      <c r="C6" t="str">
         <v>abcdf</v>
       </c>
-      <c r="D4" t="str">
+      <c r="D6" t="str">
         <v>tishya@gmail.com</v>
       </c>
-      <c r="E4" t="str">
+      <c r="E6" t="str">
         <v>globalTiger</v>
       </c>
-      <c r="F4" t="str">
+      <c r="F6" t="str">
         <v>55667788</v>
       </c>
-      <c r="G4" t="str">
+      <c r="G6" t="str">
         <v>DM_selected</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7">
+        <v>318</v>
+      </c>
+      <c r="C7" t="str">
+        <v>cleveland1</v>
+      </c>
+      <c r="D7" t="str">
+        <v>cleveland1@gmail.com</v>
+      </c>
+      <c r="E7" t="str">
+        <v>nasa corporation</v>
+      </c>
+      <c r="F7" t="str">
+        <v>55667788</v>
+      </c>
+      <c r="G7" t="str">
+        <v>DM_TBS</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8">
+        <v>319</v>
+      </c>
+      <c r="C8" t="str">
+        <v>surmak</v>
+      </c>
+      <c r="D8" t="str">
+        <v>surmka@gmail.com</v>
+      </c>
+      <c r="E8" t="str">
+        <v>umbrala corporation</v>
+      </c>
+      <c r="F8" t="str">
+        <v>55667788</v>
+      </c>
+      <c r="G8" t="str">
+        <v>DM_scheduled</v>
       </c>
     </row>
   </sheetData>
